--- a/docs/中招联合评标系统接口详细文档接口.xlsx
+++ b/docs/中招联合评标系统接口详细文档接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" tabRatio="813" activeTab="6"/>
+    <workbookView windowWidth="28800" windowHeight="12465" tabRatio="813" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="项目经理所有接口" sheetId="16" r:id="rId1"/>
@@ -1042,23 +1042,28 @@
   </si>
   <si>
     <t>{
-  'projectBagMsg':[{
-    'functionary': 项目负责人,
-    'id': 项目id,
-    'projectName': 项目名称,
-    'status': 项目状态(number)0：公开，1：谈判，2：邀请
-  }],
-  'allBagMsg': [{
-    bagName: 第几包,
-    ids:包id, 
-    biaobaomingcheng: 标包名称,
-    starTime: 评标开始时间
-    stopTime:评标截至时间
-    methodType: 评标方法（number）1：合理低价, 2:     综合评标，3:最低价                                                                                                                                             
-       pageSize：每页的记录数
-       pageIndex：当前索引
-       totalPage：总页数                pageNumber：当前页码，
-  }]， 
+    projectBagMsg:[{
+            functionary: 项目负责人,
+            id: 项目id,
+            projec: 项目状态(number)0：公开，1：谈判，2：邀请
+          },
+         ...
+        {...}
+],
+   allBagMsg: [{
+        bagName: 第几包,
+        ids:包id,
+        biaobaomingcheng: 标包名称,
+        starTime: 评标开始时间
+        stopTime:评标截至时间
+        methodType: 评标方法（number）1：合理低价, 2:综合评标，3:最低价
+        pageSize：每页的记录数
+        totalPage：总页数                
+        pageNumber：当前页码，
+    },  
+    ...
+    {...}
+ ]，
 }</t>
   </si>
   <si>
@@ -1121,82 +1126,97 @@
   </si>
   <si>
     <t xml:space="preserve">{
-  bidMsg: {
-   name:标包名称
-   baohao: 包号,
-    biaoNum: 标号,
-    companyNameData:[{  //个人形式审计表table数据
-      companyName:投标人,
-      zhaunjiadata_gs:[//专家对每一个投标人的打分数据
-        {
-          zhaunjia1:[√,  √,√,合格]//专家1对投标人2的资格审查因素1的打分为合格，专家1对投标人2的资格审查因素2的打分为合格，依次，数组的最后一项为专家1对投标人2是否通过资格审查项检查的结论为合格
-        } ,
+    bidMsg: {
+        name:标包名称
+        baohao: 包号,
+            biaoNum: 标号,
+            companyNameData:[{  //个人形式审计表table数据
+            companyName:投标人,
+            zhaunjiadata_gs:[//专家对每一个投标人的打分数据
+                {
+                    zhaunjia1:[√,  √,√,合格]//专家1对投标人2的资格审查因素1的打分为合格，专家1对投标人2的资格审查因素2的打分为合格，依次，数组的最后一项为专家1对投标人2是否通过资格审查项检查的结论为合格
+    } ,
+    ...
         {...}
-     ]
+    ]
     }],
-    eviewrItemsMsg: {//初审表格数据
-      companyNameList:[{//初审表格投标人
-        factors_standards:[{
-          factor:评审因素,
-          standard:评审标准,
-          relativePoints:[{//关注点
-            id: pdf文件id,
-            name: pdf文件文件名称,
-            page: 关注点页面号码,
-            txt: 关注点文字内容,
-          }],
-        }],
-        title:投标人名称,
-        pdf:[
-          {id: pdf文件id, pdf_name: pdf文件id, url1: pdf文件的文件路径},
-        ]
-      }],
-      viewnBtnName:审查项表按钮的名称,
-      shenchaName:审查项名称,
-      dingdang_tableData:[{//初审审table数据
-        evaluationFactors: 评审因素,
-        gradeExplain1: 每个投标人对应的不合格理由（有多少个投标人就有多少个 gradeExplain），
-        gradeExplain2: "",
+        eviewrItemsMsg: {//初审表格数据
+            companyNameList:[{//初审表格投标人
+                factors_standards:[{
+                    factor:评审因素,
+                    standard:评审标准,
+                    relativePoints:[{//关注点
+                        id: pdf文件id,
+                        name: pdf文件文件名称,
+                        page: 关注点页面号码,
+                        txt: 关注点文字内容,
+                    },
+                        ...
+                            {...}
+                    ],
+                },
+                    ...
+                        {...}
+                ],
+                title:投标人名称,
+                pdf:[
+                    {id: pdf文件id, pdf_name: pdf文件id, url1: pdf文件的文件路径},
+                    ...
+                        {...}
+                ]
+            }],
+                viewnBtnName:审查项表按钮的名称,
+                shenchaName:审查项名称,
+                dingdang_tableData:[{//初审审table数据
+                evaluationFactors: 评审因素,
+                gradeExplain1:投标人1对评审因素1的不合格理由（每个投标人对应的不合格理由有多少个投标人就有多少个 gradeExplain），
+                gradeExplain2: 投标人2对评审因素1的不合格理由,
         ...
-        gradeExplain15:"",
-        radioList:[{//是否合格
-          num: 合格laber,
-          typeTitle: 合格radio,
-        },{
-          num: 不合格laber,
-          typeTitle: 不合格radio,
-        }],
-        standardReview: 审查标准,
-        value1: 每个投标人对应的评审因素是否合格的值（有多少个投标人就有多少个vulue）,
-        value2: "",
+            gradeExplain15:投标人15对评审因素1的不合格理由,
+                radioList:[{//是否合格
+                num: 合格laber,
+                typeTitle: 合格radio,
+            },{
+                num: 不合格laber,
+                typeTitle: 不合格radio,
+            }],
+                standardReview: 审查标准,
+                value1: 投标人1对评审因素1的是否合格选项值（每个投标人对应的评审因素是否合格的值有多少个投标人就有多少个vulue）,
+            value2: 投标人2对评审因素1的是否合格选项值,
         ...
-        value15: "",
-      }],
-    },
-    grcs_titile_data:{//个人形式审计表头数据
-      bagName: 分包号,
-      groupName: 评标委员会,
-      professorName: 评标专家
-    },
-    grzgscFailureData:[{//个人形式审计表结论数据
-      gongsi:投标人,
-      pingshenyinsu:评审因素,
-      reason:排除理由,
-      zhaunjia:评审专家,
-    },{...}],
-    id:包id,
-    msg:[{//个人资格审查项表数据
-        evaluationFactors:评审因素,
-        number:序号
-      },
-      {...}],
-    name:包名称,
-    type:是否提交过(0,提交过;1未提交过)
-    pageNumber：当前页码，
-    pageSize：每页的记录数
-    pageIndex：当前索引
-    totalPage：总页数
- }
+            value15: 投标人15对评审因素1的是否合格选项值,
+            },
+            ...
+            {...}
+        ],
+        },
+        grcs_titile_data:{//个人形式审计表头数据
+            bagName: 分包号,
+                groupName: 评标委员会,
+                professorName: 评标专家
+        },
+        grzgscFailureData:[{//个人形式审计表结论数据
+            gongsi:投标人,
+            pingshenyinsu:评审因素,
+            reason:排除理由,
+            zhaunjia:评审专家,
+        },
+            ...
+                {...}
+        ],
+            id:包id,
+            msg:[{//个人资格审查项表数据
+            evaluationFactors:评审因素,
+            number:序号
+        },
+            ...
+                {...}],
+            name:包名称,
+            type:是否提交过(0,提交过;1未提交过)
+        pageNumber：当前页码，
+        pageSize：每页的记录数
+        totalPage：总页数
+    }
 }
 </t>
   </si>
@@ -1356,77 +1376,97 @@
   </si>
   <si>
     <t xml:space="preserve">{
-  bidMsg: {
-   name:标包名称
-   baohao: 包号,
-   id:包id,
-   biaoNum: 标号,
-   eviewrItemsMsg: {
-      companyNameData:[{//个人初审类活动表数据
-            companyName:投标人,
-            zhaunjiadata_gs:[//汇总表评标专家的评标数据
-              {
-                zhaunjia1:[√,  √,√,合格],//数组的第一项：专家1对投标人1的评审因素为资格审查1的打分为√数组的第二项：专家1对投标人1的评审因素为资格审查2的打分为√，依次类推
-                zhaunjiamingcheng:评标专家
+    bidMsg: {
+        name:标包名称
+        baohao: 包号,
+        id:包id,
+        biaoNum: 标号,
+        eviewrItemsMsg: {
+            companyNameData:[{//个人初审类活动表数据
+                companyName:投标人,
+                zhaunjiadata_gs:[//汇总表评标专家的评标数据
+                    {
+                        zhaunjia1:[√,  √,√,合格],//数组的第一项：专家1对投标人1的评审因素为资格审查1的打分为√数组的第二项：专家1对投标人1的评审因素为资格审查2的打分为√，依次类推
+                        zhaunjiamingcheng:评标专家
+                  },
+                    ...
+                  {...}
+                ]
+            },
+            ...
+            {...}
+        ],
+        grcs_titile_data:{//个人初审类活动表头部数据
+            groupName:评标委员会,
+                bagName:分包号
+        },
+        evaluationLeader：汇总表数据评标委员会组长,
+        isShow:显示那个页面（1：解锁的那个页面显示，反之进度条的那个显示）
+        msgBox:[{//个人初审类活动表数据
+               xuhao:序号,
+               evaluationFactors:评审因素,
+          },
+          ...
+          {...}
+        ],
+        other_explain:提交汇总表页面的其他说明,
+        tableData:[//汇总显示专家打分进度表格表头数据
+            {
+                dataItem: evaluationExpert',//评审专家（动态表头的名字绑定数据）
+                dataName: 评审专家,//动态表头的名字
+                type:1//文字 区分是文字还是进度条（ 1：文字，2：进度条）
+          }, {
+                dataItem: businessReviewProgress,
+                dataName: 详细评审（技术）进度,
+                type': '2'//进度条
+            }, {
+                dataItem: isResultsBusinessReview,
+                dataName: 是否提交详细评审（技术）进度结果',
+                type: 1//文字
+            },
+            ...
+            {...}
+        ],
+            tables:[{//汇总显示专家打分进度表格数据
+                evaluationExpert: 评审专家
+                businessReviewProgress:资格审查项进度
+                isResultsBusinessReview:是否提交资格审查结果
               },
+                ...
+              {...}],
+                title_mg:解锁申请记录表头部的项目信息,
+                unlock_dialog_check:[{//解锁申请记录表数据
+                applicantPeole: 申请人
+                applicantReason: 申请原因
+                applicantTime:申请时间
+                assessingOfficer: 审批人
+                assessingResult: 审批结果
+                unlockObject:解锁对象
+                unlockReason: 解锁理由
+            },
+                ...
+            {...}],
+            unlock_table_company_name:[{//汇总unlock_table_company_name页面有提交按钮的评审表数据
+                companyName:投标人,
+                zhaunjiadata_gs:[//评标结果数据
+                    {
+                      zhaunjia1:[√(5√0×),  √(5√0×),√(5√0×),合格]//专家1对投标人1的评审因素为资格审查1的评标结果为√(5√0×)，专家1对投标人1的评审因素为资格审查2的评标结果为√(5√0×)，依次类推
+                     }
+                ],
+                ...
+                {...}
+           },
+            ...
+            {...}],
+            unlock_table_data:[{//汇总提交页面数据
+                number: 1,//序号
+                evaluationFactors: 评审因素,
+            },
+                ...
               {...}
-           ]
-          }],
-     grcs_titile_data:{//个人初审类活动表头部数据
-       groupName:评标委员会,
-       bagName:分包号
-     },
-      evaluationLeader：汇总表数据评标委员会组长,
-      isShow:显示那个页面（1：解锁的那个页面显示，反之进度条的那个显示）
-      msgBox:[{//个人初审类活动表数据
-        xuhao:序号,
-        evaluationFactors:评审因素,
-      }],
-      other_explain:"",//提交汇总表页面的其他说明
-      tableData:[//汇总显示专家打分进度表格表头数据
-        {
-          dataItem: evaluationExpert',//评审专家（动态表头的名字绑定数据）
-          dataName: 评审专家,//动态表头的名字
-          type:1//文字 区分是文字还是进度条（ 1：文字，2：进度条）
-        }, {
-          dataItem: businessReviewProgress,
-          dataName: 详细评审（技术）进度,
-         type': '2'//进度条
-        }, {
-          dataItem: isResultsBusinessReview,
-          dataName: 是否提交详细评审（技术）进度结果',
-          type: 1//文字
-        },
-      ],
-      tables:[{//汇总显示专家打分进度表格数据
-        evaluationExpert: 评审专家
-        businessReviewProgress:资格审查项进度
-        isResultsBusinessReview:是否提交资格审查结果
-      }],
-      title_mg:解锁申请记录表头部的项目信息,
-      unlock_dialog_check:[{//解锁申请记录表数据
-        applicantPeole: 申请人
-        applicantReason: 申请原因
-        applicantTime:申请时间
-        assessingOfficer: 审批人
-        assessingResult: 审批结果
-        unlockObject:解锁对象
-        unlockReason: 解锁理由
-      }],
-     unlock_table_company_name:[{//汇总unlock_table_company_name页面有提交按钮的评审表数据
-        companyName:投标人,
-        zhaunjiadata_gs:[//评标结果数据
-          {
-            zhaunjia1:[√(5√0×),  √(5√0×),√(5√0×),合格]//专家1对投标人1的评审因素为资格审查1的评标结果为√(5√0×)，专家1对投标人1的评审因素为资格审查2的评标结果为√(5√0×)，依次类推
-          }
-        ]
-      }],
-      unlock_table_data:[{//汇总提交页面数据
-        number: 1,//序号
-        evaluationFactors: 评审因素,
-      },{...}]
+            ]
+        }
     }
-  }
 }
 </t>
   </si>
@@ -1537,70 +1577,84 @@
   </si>
   <si>
     <t xml:space="preserve">{
-  bidMsg: {
-   name:标包名称
-   baohao: 包号,
-   id:包id,
-   biaoNum: 标号,
-   type:显示那个页面(0：提交前那个页面显示，1:提交的页面)，
-   eviewrItemsMsg: {
-     is_tijiao：是否提交，0：未提交；1：已经提交完成，
-     companyNameList:[{//详细评审表格投标人数据
-       factors_standards:[{
-         factor:评审因素
-         relativePoints: [{关注点
+    bidMsg: {
+        name:标包名称
+        baohao: 包号,
+        id:包id,
+        biaoNum: 标号,
+        type:显示那个页面(0：提交前那个页面显示，1:提交的页面)，
+        eviewrItemsMsg: {
+            is_tijiao：是否提交，0：未提交；1：已经提交完成，
+            companyNameList:[{//详细评审表格投标人数据
+             factors_standards:[{
+                 factor:评审因素
+                 relativePoints: [{关注点
+                   id: pdf的id
+                   name: pdf的文件名
+                   page: 关注点页面号码
+                   txt: 关注点文字的内容
+                 },
+                 ...
+                {...}
+               ]
+               standard: 评审标准
+              },
+              ...
+             {...}]
+       pdf: [{
            id: pdf的id
-           name: pdf的文件名
-           page: 关注点页面号码
-           txt: 关注点文字的内容
-         }]
-         standard: 评审标准
-       }]
-       pdf: [{
-         id: pdf的id
-         pdf_name: pdf的文件名
-         url1:pdf的文件路径
-       }]
+           pdf_name: pdf的文件名
+           url1:pdf的文件路径
+           },
+           ...{...}
+       ]
        title: 投标人
-     }],
+   }],
      dingdang_tableData:[{详细评审表格数据
        bool1:  投标人1对商务设置的变量
        bool2: 投标人2对商务设置的变量
        bool3: 投标人3对商务设置的变量（有多少个投标人就有多少个 bool）
-       ...
+        ...
        bool15: 投标人15对商务设置的变量
        gradeExplain1:  投标人1对商务的评分说明
        gradeExplain2: 投标人2对商务的评分说明（有多少个投标人就有多少个 gradeExplain）
-       ...
+         ...
        gradeExplain115: 投标人15对商务的评分说明
        max: 专家打分的最大分
        min: 专家打分的最小分
        projectName: 项目
        radioList:[复选法的radioList
-         {typeTitle: 显示选项数据, num: 选项序号},
-         {...}
+           {typeTitle: 显示选项数据, num: 选项序号},
+            ...
+           {...}
        ] ,
-       rowIndex: 记录点击的是那行
+           rowIndex: 记录点击的是那行
        tit: 两步法的是否官方配置说明
        type: 那种方法（例如：单选：radio；复选checkbox；人工录入法:inputLabour；布局法：inputSelect；两步法：input）
        value1: 投标人1对商务1的打分
        value2: 投标人2对商务1的打分（有多少个投标人就有多少个 value）
+        ...
+       value15: 投标人15对商务1的打分
+   },
+    ...
+    {...}
+    ],
+       evaluationExpert:评审专家,
+       gongzuo_name:提交时提示的具体什么工作名称,
+       viewScheduleTitileData:{查看定档评议表弹框表表头数据
+           bagName: 分包号
+           groupName:  评标委员会
+       },
+       viewUnfinishedData:[{未完成弹框table数据
+       dafenxiangweizhi: 打分项位置
+       gongyingshang: 供应商名称
+       pageNumber：当前页码，
+       pageSize：每页的记录数
+       totalPage：总页数
+       },
        ...
-       value15: 投标人15对商务1的打分
-     }],
-     evaluationExpert:评审专家,
-     gongzuo_name:提交时提示的具体什么工作名称,
-     viewScheduleTitileData:{查看定档评议表弹框表表头数据
-       bagName: 分包号
-       groupName:  评标委员会
-     },
-     viewUnfinishedData:[{未完成弹框table数据
-       dafenxiangweizhi: 打分项位置
-       gongyingshang: 供应商名称        pageNumber：当前页码，
-    pageSize：每页的记录数
-    pageIndex：当前索引
-    totalPage：总页数
-     }],
+       {...}
+   ],
    }
   }
 }
@@ -1708,164 +1762,202 @@
 tippsDialogName：评分解锁成功提示框的name(String)</t>
   </si>
   <si>
-    <t xml:space="preserve">{
-  bidMsg: {
-   name:标包名称
-   baohao: 包号,
-   id:包id,
-   biaoNum: 标号,
-   isShow:显示那个页面(0：提交前那个页面显示，1:提交的页面)
-   eviewrItemsMsg: {
-     bidEvaluation:[{ (综合评标报价计算得分数据)
-       beitaValue: β值
-       evaluationBid: 评标价
-       name: 投标人名称
-       score: 专家确认得分
-       scoringSystem: 系统计算得分
-       standardPrice: 基准价
-       toubiaoPrice: 投标报价
-     },{...}],
-     bidEvaluation:[{(合理低价)
-       id: id,
-       bid_name:投标人名称,
-       tender_offer: 投标报价,
-       bid_price: 评标价,
-       base_rice:基准价,
-       bias_ratio:偏离率,
-       radio: 报价是否有效(1:有效；2无效),
-     },{...}],
-     biddersScoreTable:[{(投标人分项得分表专家打分数据)
-       evaluationFactors: 项目
-       value1: 专家1对投标人1的项目为商务的打分，
-       value2: 专家2对投标人1的项目为商务的打分
-       value3: 专家3对投标人1的项目为商务的打分
-       value4: 专家4对投标人1的项目为商务的打分
-       value5: 专家5对投标人1的项目为商务的打分
-       value6: 专家6对投标人1的项目为商务的打分
-       value7:专家7对投标人1的项目为商务的打分
-       value8:专家8对投标人1的项目为商务的打分
-       value9: 专家9对投标人1的项目为商务的打分
-     },{ ...}
-     ],
-     biddersScoreTitleData:[{（投标人分项得分表的多级表头数据）
-       NameList: [{
-        name:评标专家
-       }],
-       companyName: 投标人
-     },{...}],
-     companyNameData:[{(查看专家个人打分表数据)
-       name:评审人
-       companyNameList: [//投标人数组
-         {title:重庆网控科技发展有限公司（1）投标人},
-         {...}
-       ]
-     }],
-     jiesuoData:{评分解锁申请表数据
-      radioList: [{提出专家数组
-         value: 选中类型区分,
-         label:解锁申请类型'
-       },{...} ],
-       checkedList:[评审专家七, 评审专家五, 评审专家一],提出专家
-       tippsDialogName:评分解锁成功提示框的name
-     },
-     pingshenhuizongTableData:[{
-       bidder: 投标人,
-       pricePoints:报价分,
-       finalScore:最终得分,
-       ranking:名次,
-       creditScoring:信用得分,
-     }],
-     pingshenweiyuanData:[{汇总表数据
-       name:评标专家名字,
-       zhaunjiadata_gs:[
-         {
-           zhaunjia1:[33.00,  31.00,38.00,]评标专家1都投标人1，2，3的打分分别为33.00 、31.00、38.00、
-         } {...},
-       ]
-     }],
-     scoringBasePrice:系统计算评分基准价,
-     review_summary:[{
-       id:id,
-       num: 投标序号,
-       name: 投标人,
-       tender_offer: 投标报价,
-       total: 评标价,
-       ranking: 公司排名,
-     }],
-     sort_data:[{
-      company_name:公司名,
-       id: id,
-       ranking: 公司排名,
-     }],
-     tableData:[{综合评标页面进度条表格数据
-       dataItem: evaluationExpert,//评审专家（动态表头的名字绑定数据）
-       dataName: 评审专家,//动态表头的名字
-       type: 1//文字 区分是文字还是进度条（ 1：文字，2：进度条）(Number)
-     }, {
-       dataItem: businessReviewProgress,
-       dataName:商务评审进度,
-       type:2//进度条
-     }, {
-       dataItem: isResultsBusinessReview,
-       dataName:是否提交商务评审结果,
-       type: 1//文字
-     }, {
-       dataItem: technicalReviewProgress,
-       dataName: 技术评审进度,
-       type: 2//进度条
-     }, {
-       dataItem: isResultsTechnicalReview,
-       dataName: 是否提交技术评审结果,
-       type: 1//文字
-     }, {
-       dataItem:serviceReviewProgress,
-       dataName: 服务评审进度,
-       type: 2//进度条
-     },{
-       dataItem: isResultsServiceReview,
-       dataName: 是否提交服务评审结果,
-       type:1//文字
-     },{
-       dataItem:otherReviewProgress,
-       dataName: 其他评审进度,
-       type: 2//进度条
-     },{
-       dataItem: isResultsOtherReview,
-       dataName: 是否提交其他评审结果,
-       type: 1//文字
-     }],
-     tables:[{解锁记录table数据
-       evaluationExpert: 评审专家,
-       businessReviewProgress: 进度(商务评审),
-       isResultsBusinessReview: 是否完成（商务提交结果）,
-       technicalReviewProgress: 进度(商务评审),
-       isResultsTechnicalReview: 是否完成（商务提交结果）,
-       serviceReviewProgress:5,
-       isResultsServiceReview: 是否完成（商务提交结果）,
-       otherReviewProgress:5,
-       isResultsOtherReview:未完成
-     }，{...}],
-     tijiao:是否已提交0,提交之后的，1，提交之前的,
-     title_mg:解锁记录记录弹框标包评委会信息,
-     unlock_dialog_check:[{
-       applicantPeole: 申请人
-       applicantTime: 申请时间
-       unlockObject: 解锁对象
-       applicantReason: 申请原因
-       assessingOfficer:审批人
-       assessingResult: 审批结果
-       unlockReason: 解锁理由
-     }],
-     zhaunjiaGerenMarkData:[查看专家个人打分表数据
-       {
-       evaluationFactors: 项目,
-       value1:-评标专家1都投标人1项目为1的打分,
-       value2:-，评标专家1都投标人1项目为2的打分下面的同理有多少个项目就有多少个value,
-       ...
-       value9:-,
-     }]
-   }
-  }
+    <t xml:space="preserve">
+{
+    bidMsg: {
+        name:标包名称
+        baohao: 包号,
+        id:包id,
+        biaoNum: 标号,
+        isShow:显示那个页面(0：提交前那个页面显示，1:提交的页面)
+        eviewrItemsMsg: {
+            bidEvaluation:[{ (综合评标报价计算得分数据)
+                beitaValue: β值
+                evaluationBid: 评标价
+                name: 投标人名称
+                score: 专家确认得分
+                scoringSystem: 系统计算得分
+                standardPrice: 基准价
+                toubiaoPrice: 投标报价
+            }，
+            ...
+            {...}],
+            bidEvaluation:[{(合理低价)
+                id: id,
+                bid_name:投标人名称,
+                tender_offer: 投标报价,
+                bid_price: 评标价,
+                base_rice:基准价,
+                bias_ratio:偏离率,
+                radio: 报价是否有效(1:有效；2无效),
+            },
+            ...
+            {...}],
+            biddersScoreTable:[{(投标人分项得分表专家打分数据)
+             evaluationFactors: 项目
+            value1: 专家1对投标人1的项目为商务的打分，
+            value2: 专家2对投标人1的项目为商务的打分
+            value3: 专家3对投标人1的项目为商务的打分
+            value4: 专家4对投标人1的项目为商务的打分
+            value5: 专家5对投标人1的项目为商务的打分
+            value6: 专家6对投标人1的项目为商务的打分
+            value7:专家7对投标人1的项目为商务的打分
+            value8:专家8对投标人1的项目为商务的打分
+            value9: 专家9对投标人1的项目为商务的打分
+          },
+            ...
+            { ...}
+        ],
+        biddersScoreTitleData:[{（投标人分项得分表的多级表头数据）
+           NameList: [{
+               name:评标专家
+           }],
+               companyName: 投标人
+           },
+            ...
+            {...}],
+            companyNameData:[{(查看专家个人打分表数据)
+                name:评审人
+                 companyNameList: [//投标人数组
+                    {title:重庆网控科技发展有限公司（1）投标人},
+                    ...
+                    {...}
+             ]
+         },
+            ...
+            {...}
+         ],
+            jiesuoData:{评分解锁申请表数据
+                radioList: [{提出专家数组
+                    value: 选中类型区分,
+                    label:解锁申请类型'
+                },
+                ...
+                {...} ],
+                checkedList:[评审专家七, 评审专家五, 评审专家一],提出专家
+                tippsDialogName:评分解锁成功提示框的name
+            },
+            pingshenhuizongTableData:[{
+                bidder: 投标人,
+                pricePoints:报价分,
+                finalScore:最终得分,
+                ranking:名次,
+                creditScoring:信用得分,
+                },
+                ...
+                {...}
+            ],
+                pingshenweiyuanData:[{汇总表数据
+                name:评标专家名字,
+                zhaunjiadata_gs:[
+                    {
+                       zhaunjia1:[33.00,  31.00,38.00,]评标专家1都投标人1，2，3的打分分别为33.00 、31.00、38.00、
+                    },
+                    ...
+                   {...}]
+                },
+                ...
+               {...} ],
+            scoringBasePrice:系统计算评分基准价,
+                review_summary:[{
+                    id:id,
+                    num: 投标序号,
+                    name: 投标人,
+                    tender_offer: 投标报价,
+                    total: 评标价,
+                    ranking: 公司排名,
+                    },
+                    ...
+                   {...}
+                ],
+                sort_data:[{
+                    company_name:公司名,
+                    id: id,
+                    ranking: 公司排名,
+                    },
+                    ...
+                    {...}
+                ],
+                tableData:[{综合评标页面进度条表格数据
+                    dataItem: evaluationExpert,//评审专家（动态表头的名字绑定数据）
+                    dataName: 评审专家,//动态表头的名字
+                    type: 1//文字 区分是文字还是进度条（ 1：文字，2：进度条）(Number)
+                    }, {
+                            dataItem: businessReviewProgress,
+                                dataName:商务评审进度,
+                                type:2//进度条
+                        }, {
+                            dataItem: isResultsBusinessReview,
+                                dataName:是否提交商务评审结果,
+                                type: 1//文字
+                        }, {
+                            dataItem: technicalReviewProgress,
+                                dataName: 技术评审进度,
+                                type: 2//进度条
+                        }, {
+                            dataItem: isResultsTechnicalReview,
+                                dataName: 是否提交技术评审结果,
+                                type: 1//文字
+                        }, {
+                            dataItem:serviceReviewProgress,
+                                dataName: 服务评审进度,
+                                type: 2//进度条
+                        },{
+                            dataItem: isResultsServiceReview,
+                                dataName: 是否提交服务评审结果,
+                                type:1//文字
+                        },{
+                            dataItem:otherReviewProgress,
+                                dataName: 其他评审进度,
+                                type: 2//进度条
+                        },{
+                            dataItem: isResultsOtherReview,
+                                dataName: 是否提交其他评审结果,
+                                type: 1//文字
+                        },
+                        ...
+                        {...}
+            ],
+            tables:[{解锁记录table数据
+                evaluationExpert: 评审专家,
+                businessReviewProgress: 进度(商务评审),
+                isResultsBusinessReview: 是否完成（商务提交结果）,
+                technicalReviewProgress: 进度(商务评审),
+                isResultsTechnicalReview: 是否完成（商务提交结果）,
+                serviceReviewProgress:5,
+                isResultsServiceReview: 是否完成（商务提交结果）,
+                otherReviewProgress:5,
+                isResultsOtherReview:未完成
+            }，
+            ...
+            {...}],
+            tijiao:是否已提交0,提交之后的，1，提交之前的,
+                title_mg:解锁记录记录弹框标包评委会信息,
+                unlock_dialog_check:[{
+                    applicantPeole: 申请人
+                    applicantTime: 申请时间
+                    unlockObject: 解锁对象
+                    applicantReason: 申请原因
+                    assessingOfficer:审批人
+                    assessingResult: 审批结果
+                    unlockReason: 解锁理由
+                    },
+                    ...   
+                     {...}
+                 ],
+                zhaunjiaGerenMarkData:[查看专家个人打分表数据
+                {
+                    evaluationFactors: 项目,
+                    value1:-评标专家1都投标人1项目为1的打分,
+                    value2:-，评标专家1都投标人1项目为2的打分下面的同理有多少个项目就有多少个value,
+                      ...
+                     value9:-,
+                 },
+                 ... 
+                {...}
+               ]
+         }
+    }
 }
 </t>
   </si>
@@ -2050,9 +2142,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -2085,6 +2177,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -2094,9 +2254,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2115,54 +2290,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2176,54 +2313,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2256,25 +2348,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2286,31 +2372,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2322,73 +2390,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2406,7 +2408,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2418,25 +2510,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2554,6 +2646,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2578,15 +2714,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2601,51 +2728,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2654,133 +2746,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5798,9 +5890,9 @@
   <dimension ref="A1:P124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12:F27"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.625" defaultRowHeight="50.1" customHeight="1"/>
@@ -7516,7 +7608,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.625" defaultRowHeight="50.1" customHeight="1" outlineLevelCol="6"/>
@@ -7770,7 +7862,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C155" sqref="C155"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3:G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.625" defaultRowHeight="50.1" customHeight="1"/>
@@ -13246,7 +13338,7 @@
   <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="H8" sqref="H8:H18"/>
     </sheetView>
@@ -14062,7 +14154,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
@@ -16506,8 +16598,8 @@
   <sheetPr/>
   <dimension ref="A1:O137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
     </sheetView>
@@ -18391,10 +18483,10 @@
   <sheetPr/>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3:E6"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.625" defaultRowHeight="50.1" customHeight="1" outlineLevelCol="6"/>
@@ -18614,9 +18706,9 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3:E6"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.625" defaultRowHeight="50.1" customHeight="1" outlineLevelCol="6"/>
